--- a/Profiling Charts.xlsx
+++ b/Profiling Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hient\OneDrive\Desktop\UVic\Summer 2022\SENG 440\seng440-Motion-Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9CEAF7-D9F6-466A-8920-E8C9445B7A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B5D4D-9868-48F6-B3A4-4A623B87C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9BC97A4A-2832-422C-AFE7-EF89C60454C2}"/>
   </bookViews>
@@ -537,7 +537,7 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Runtime compared with uinitial program</a:t>
+                  <a:t>Runtime compared with initial program</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA" sz="1400">
                   <a:effectLst/>
@@ -2256,6 +2256,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Metric compared with initial program</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4995,7 +5050,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
